--- a/labeled_record_20240701_20240731.xlsx
+++ b/labeled_record_20240701_20240731.xlsx
@@ -1368,8 +1368,8 @@
   <sheetPr/>
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3004,7 +3004,7 @@
         <v>87</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>50</v>
@@ -3992,7 +3992,7 @@
         <v>114</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <v>13</v>
